--- a/TemplateExportAnagraficaSoci.xlsx
+++ b/TemplateExportAnagraficaSoci.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacardi/Cartelle/localhost/waldorf/swapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930DA9F6-F7A2-9B49-9F69-85CF0B6D4B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ACDBA1-9BE3-FD46-B285-8C2A839D39C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,7 +587,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -647,10 +647,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>11</v>

--- a/TemplateExportAnagraficaSoci.xlsx
+++ b/TemplateExportAnagraficaSoci.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacardi/Cartelle/localhost/waldorf/swapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ACDBA1-9BE3-FD46-B285-8C2A839D39C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3F58DB-3D70-C146-B79C-F22EDE68DC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>N</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Dati di Residenza</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -164,14 +167,14 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -179,23 +182,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -203,28 +206,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -240,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -261,23 +242,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -584,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -597,46 +572,47 @@
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="16.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="30.5" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" customWidth="1"/>
-    <col min="18" max="18" width="10.5" customWidth="1"/>
+    <col min="10" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="30.5" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:18" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C3"/>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="N3" s="12" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="O3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="14"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="2" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -673,30 +649,33 @@
       <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="2">
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/TemplateExportAnagraficaSoci.xlsx
+++ b/TemplateExportAnagraficaSoci.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <workbookPr codeName="Questa_cartella_di_lavoro"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacardi/Cartelle/localhost/waldorf/swapp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Cartelle\localhost\waldorf\swapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3F58DB-3D70-C146-B79C-F22EDE68DC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89923D62-0541-427A-96D0-C7FA55635CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26160" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AnagraficheSoci" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>N</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Nazionalità</t>
+  </si>
+  <si>
+    <t>Data Disiscrizione</t>
   </si>
 </sst>
 </file>
@@ -559,60 +562,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S5"/>
+  <sheetPr codeName="Foglio1"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
-    <col min="10" max="13" width="16.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="30.5" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" customWidth="1"/>
-    <col min="19" max="19" width="10.5" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
+    <col min="11" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="30.42578125" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1"/>
-      <c r="I1"/>
+      <c r="D1"/>
+      <c r="J1"/>
     </row>
-    <row r="2" spans="1:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2"/>
-      <c r="I2"/>
+      <c r="D2"/>
+      <c r="J2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C3"/>
-      <c r="I3" s="12" t="s">
+      <c r="D3"/>
+      <c r="J3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
-      <c r="O3" s="9" t="s">
+      <c r="N3" s="12"/>
+      <c r="P3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="11"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4"/>
-      <c r="I4"/>
+      <c r="D4"/>
+      <c r="J4"/>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -623,59 +629,62 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="2">
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="J3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
